--- a/first_measure_first_case_comparison.xlsx
+++ b/first_measure_first_case_comparison.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
   <si>
     <t>country</t>
   </si>
@@ -581,553 +581,70 @@
     <t>185</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>DRC</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>France</t>
+    <t>Southern Asia</t>
+  </si>
+  <si>
+    <t>Middle Africa</t>
+  </si>
+  <si>
+    <t>Southern Europe</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Western Asia</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Australia and New Zealand</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Eastern Africa</t>
+  </si>
+  <si>
+    <t>Western Africa</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Southeastern Asia</t>
+  </si>
+  <si>
+    <t>Southern Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Eastern Asia</t>
+  </si>
+  <si>
+    <t>Northern Europe</t>
+  </si>
+  <si>
+    <t>Northern Africa</t>
+  </si>
+  <si>
+    <t>Melanesia</t>
   </si>
   <si>
     <t>Micronesia</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Timor Leste</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Polynesia</t>
   </si>
 </sst>
 </file>
@@ -1207,11 +724,11 @@
       <c r="C2" t="n" s="2">
         <v>43854.0</v>
       </c>
-      <c r="D2" t="n" s="2">
-        <v>43885.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-31.0</v>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>43850.0</v>
       </c>
     </row>
     <row r="3">
@@ -1224,11 +741,11 @@
       <c r="C3" t="n" s="2">
         <v>43867.0</v>
       </c>
-      <c r="D3" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-43.0</v>
+      <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n" s="2">
+        <v>43864.0</v>
       </c>
     </row>
     <row r="4">
@@ -1241,11 +758,11 @@
       <c r="C4" t="n" s="2">
         <v>43854.0</v>
       </c>
-      <c r="D4" t="n" s="2">
-        <v>43899.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-45.0</v>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="n" s="2">
+        <v>43849.0</v>
       </c>
     </row>
     <row r="5">
@@ -1258,11 +775,11 @@
       <c r="C5" t="n" s="2">
         <v>43878.0</v>
       </c>
-      <c r="D5" t="n" s="2">
-        <v>43893.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15.0</v>
+      <c r="D5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E5" t="n" s="2">
+        <v>43875.0</v>
       </c>
     </row>
     <row r="6">
@@ -1275,11 +792,11 @@
       <c r="C6" t="n" s="2">
         <v>43861.0</v>
       </c>
-      <c r="D6" t="n" s="2">
-        <v>43891.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-30.0</v>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>43860.0</v>
       </c>
     </row>
     <row r="7">
@@ -1292,11 +809,11 @@
       <c r="C7" t="n" s="2">
         <v>43861.0</v>
       </c>
-      <c r="D7" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-42.0</v>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n" s="2">
+        <v>43858.0</v>
       </c>
     </row>
     <row r="8">
@@ -1309,11 +826,11 @@
       <c r="C8" t="n" s="2">
         <v>43878.0</v>
       </c>
-      <c r="D8" t="n" s="2">
-        <v>43856.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22.0</v>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n" s="2">
+        <v>43877.0</v>
       </c>
     </row>
     <row r="9">
@@ -1326,11 +843,11 @@
       <c r="C9" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D9" t="n" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.0</v>
+      <c r="D9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E9" t="n" s="2">
+        <v>43894.0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,16 +855,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>43890.0</v>
       </c>
-      <c r="D10" t="n" s="2">
-        <v>43891.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.0</v>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="2">
+        <v>43889.0</v>
       </c>
     </row>
     <row r="11">
@@ -1355,16 +872,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D11" t="n" s="2">
-        <v>43921.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-25.0</v>
+      <c r="D11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="n" s="2">
+        <v>43893.0</v>
       </c>
     </row>
     <row r="12">
@@ -1372,16 +889,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>43862.0</v>
       </c>
-      <c r="D12" t="n" s="2">
-        <v>43865.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-3.0</v>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="2">
+        <v>43861.0</v>
       </c>
     </row>
     <row r="13">
@@ -1389,16 +906,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>43893.0</v>
       </c>
-      <c r="D13" t="n" s="2">
-        <v>43906.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-13.0</v>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="2">
+        <v>43892.0</v>
       </c>
     </row>
     <row r="14">
@@ -1406,16 +923,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D14" t="n" s="2">
-        <v>43900.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-62.0</v>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="n" s="2">
+        <v>43836.0</v>
       </c>
     </row>
     <row r="15">
@@ -1423,16 +940,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D15" t="n" s="2">
-        <v>43898.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-60.0</v>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="2">
+        <v>43837.0</v>
       </c>
     </row>
     <row r="16">
@@ -1440,16 +957,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>43833.0</v>
       </c>
-      <c r="D16" t="n" s="2">
-        <v>43898.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-65.0</v>
+      <c r="D16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="2">
+        <v>43832.0</v>
       </c>
     </row>
     <row r="17">
@@ -1457,16 +974,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>43887.0</v>
       </c>
-      <c r="D17" t="n" s="2">
-        <v>43885.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.0</v>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="2">
+        <v>43886.0</v>
       </c>
     </row>
     <row r="18">
@@ -1474,16 +991,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>43852.0</v>
       </c>
-      <c r="D18" t="n" s="2">
-        <v>43906.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-54.0</v>
+      <c r="D18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E18" t="n" s="2">
+        <v>43849.0</v>
       </c>
     </row>
     <row r="19">
@@ -1491,16 +1008,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D19" t="n" s="2">
-        <v>43895.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-10.0</v>
+      <c r="D19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E19" t="n" s="2">
+        <v>43878.0</v>
       </c>
     </row>
     <row r="20">
@@ -1508,16 +1025,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D20" t="n" s="2">
-        <v>43889.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13.0</v>
+      <c r="D20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E20" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="21">
@@ -1525,16 +1042,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>43853.0</v>
       </c>
-      <c r="D21" t="n" s="2">
-        <v>43913.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-60.0</v>
+      <c r="D21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n" s="2">
+        <v>43851.0</v>
       </c>
     </row>
     <row r="22">
@@ -1542,16 +1059,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D22" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.0</v>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="2">
+        <v>43903.0</v>
       </c>
     </row>
     <row r="23">
@@ -1559,16 +1076,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D23" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.0</v>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="24">
@@ -1576,16 +1093,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>43852.0</v>
       </c>
-      <c r="D24" t="n" s="2">
-        <v>43907.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-55.0</v>
+      <c r="D24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E24" t="n" s="2">
+        <v>43848.0</v>
       </c>
     </row>
     <row r="25">
@@ -1593,16 +1110,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>43860.0</v>
       </c>
-      <c r="D25" t="n" s="2">
-        <v>43899.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-39.0</v>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="2">
+        <v>43859.0</v>
       </c>
     </row>
     <row r="26">
@@ -1610,16 +1127,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>43859.0</v>
       </c>
-      <c r="D26" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-37.0</v>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="2">
+        <v>43858.0</v>
       </c>
     </row>
     <row r="27">
@@ -1627,16 +1144,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D27" t="n" s="2">
-        <v>43920.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-17.0</v>
+      <c r="D27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E27" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="28">
@@ -1644,16 +1161,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>43859.0</v>
       </c>
-      <c r="D28" t="n" s="2">
-        <v>43905.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-46.0</v>
+      <c r="D28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E28" t="n" s="2">
+        <v>43857.0</v>
       </c>
     </row>
     <row r="29">
@@ -1661,16 +1178,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>43855.0</v>
       </c>
-      <c r="D29" t="n" s="2">
-        <v>43856.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-1.0</v>
+      <c r="D29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="2">
+        <v>43854.0</v>
       </c>
     </row>
     <row r="30">
@@ -1678,16 +1195,16 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>43874.0</v>
       </c>
-      <c r="D30" t="n" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-12.0</v>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n" s="2">
+        <v>43873.0</v>
       </c>
     </row>
     <row r="31">
@@ -1695,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D31" t="n" s="2">
-        <v>43884.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16.0</v>
+      <c r="D31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="2">
+        <v>43899.0</v>
       </c>
     </row>
     <row r="32">
@@ -1712,16 +1229,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>43850.0</v>
       </c>
-      <c r="D32" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-3.0</v>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n" s="2">
+        <v>43849.0</v>
       </c>
     </row>
     <row r="33">
@@ -1729,16 +1246,16 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>43832.0</v>
       </c>
-      <c r="D33" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-69.0</v>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n" s="2">
+        <v>43831.0</v>
       </c>
     </row>
     <row r="34">
@@ -1746,16 +1263,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D34" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.0</v>
+      <c r="D34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E34" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="35">
@@ -1763,16 +1280,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D35" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-1.0</v>
+      <c r="D35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E35" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="36">
@@ -1780,16 +1297,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>43894.0</v>
       </c>
-      <c r="D36" t="n" s="2">
-        <v>43905.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-11.0</v>
+      <c r="D36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n" s="2">
+        <v>43893.0</v>
       </c>
     </row>
     <row r="37">
@@ -1797,16 +1314,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D37" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6.0</v>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="2">
+        <v>43901.0</v>
       </c>
     </row>
     <row r="38">
@@ -1814,16 +1331,16 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D38" t="n" s="2">
-        <v>43951.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-51.0</v>
+      <c r="D38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E38" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="39">
@@ -1831,16 +1348,16 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>43892.0</v>
       </c>
-      <c r="D39" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-18.0</v>
+      <c r="D39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E39" t="n" s="2">
+        <v>43889.0</v>
       </c>
     </row>
     <row r="40">
@@ -1848,16 +1365,16 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D40" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8.0</v>
+      <c r="D40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E40" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="41">
@@ -1865,16 +1382,16 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>43858.0</v>
       </c>
-      <c r="D41" t="n" s="2">
-        <v>43902.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-44.0</v>
+      <c r="D41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E41" t="n" s="2">
+        <v>43855.0</v>
       </c>
     </row>
     <row r="42">
@@ -1882,16 +1399,16 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D42" t="n" s="2">
-        <v>43899.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-2.0</v>
+      <c r="D42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E42" t="n" s="2">
+        <v>43890.0</v>
       </c>
     </row>
     <row r="43">
@@ -1899,16 +1416,16 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>43864.0</v>
       </c>
-      <c r="D43" t="n" s="2">
-        <v>43891.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-27.0</v>
+      <c r="D43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E43" t="n" s="2">
+        <v>43861.0</v>
       </c>
     </row>
     <row r="44">
@@ -1916,16 +1433,16 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>43867.0</v>
       </c>
-      <c r="D44" t="n" s="2">
-        <v>43857.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10.0</v>
+      <c r="D44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E44" t="n" s="2">
+        <v>43865.0</v>
       </c>
     </row>
     <row r="45">
@@ -1933,16 +1450,16 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>43839.0</v>
       </c>
-      <c r="D45" t="n" s="2">
-        <v>43908.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-69.0</v>
+      <c r="D45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="2">
+        <v>43838.0</v>
       </c>
     </row>
     <row r="46">
@@ -1950,16 +1467,16 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>43854.0</v>
       </c>
-      <c r="D46" t="n" s="2">
-        <v>43912.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-58.0</v>
+      <c r="D46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E46" t="n" s="2">
+        <v>43851.0</v>
       </c>
     </row>
     <row r="47">
@@ -1967,16 +1484,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>43888.0</v>
       </c>
-      <c r="D47" t="n" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0</v>
+      <c r="D47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E47" t="n" s="2">
+        <v>43886.0</v>
       </c>
     </row>
     <row r="48">
@@ -1984,16 +1501,16 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>43875.0</v>
       </c>
-      <c r="D48" t="n" s="2">
-        <v>43891.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-16.0</v>
+      <c r="D48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="2">
+        <v>43874.0</v>
       </c>
     </row>
     <row r="49">
@@ -2001,16 +1518,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>43895.0</v>
       </c>
-      <c r="D49" t="n" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.0</v>
+      <c r="D49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="2">
+        <v>43894.0</v>
       </c>
     </row>
     <row r="50">
@@ -2018,16 +1535,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>43892.0</v>
       </c>
-      <c r="D50" t="n" s="2">
-        <v>43891.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1.0</v>
+      <c r="D50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E50" t="n" s="2">
+        <v>43888.0</v>
       </c>
     </row>
     <row r="51">
@@ -2035,16 +1552,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>43905.0</v>
       </c>
-      <c r="D51" t="n" s="2">
-        <v>43875.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>30.0</v>
+      <c r="D51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E51" t="n" s="2">
+        <v>43903.0</v>
       </c>
     </row>
     <row r="52">
@@ -2052,16 +1569,16 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>43893.0</v>
       </c>
-      <c r="D52" t="n" s="2">
-        <v>43911.0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-18.0</v>
+      <c r="D52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E52" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="53">
@@ -2069,16 +1586,16 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>43893.0</v>
       </c>
-      <c r="D53" t="n" s="2">
-        <v>43862.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>31.0</v>
+      <c r="D53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E53" t="n" s="2">
+        <v>43890.0</v>
       </c>
     </row>
     <row r="54">
@@ -2086,16 +1603,16 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>43839.0</v>
       </c>
-      <c r="D54" t="n" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-49.0</v>
+      <c r="D54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E54" t="n" s="2">
+        <v>43837.0</v>
       </c>
     </row>
     <row r="55">
@@ -2103,16 +1620,16 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>43883.0</v>
       </c>
-      <c r="D55" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-20.0</v>
+      <c r="D55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E55" t="n" s="2">
+        <v>43882.0</v>
       </c>
     </row>
     <row r="56">
@@ -2120,16 +1637,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>43837.0</v>
       </c>
-      <c r="D56" t="n" s="2">
-        <v>43859.0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-22.0</v>
+      <c r="D56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="2">
+        <v>43836.0</v>
       </c>
     </row>
     <row r="57">
@@ -2137,16 +1654,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D57" t="n" s="2">
-        <v>43909.0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-12.0</v>
+      <c r="D57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E57" t="n" s="2">
+        <v>43894.0</v>
       </c>
     </row>
     <row r="58">
@@ -2154,16 +1671,16 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>43874.0</v>
       </c>
-      <c r="D58" t="n" s="2">
-        <v>43854.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>20.0</v>
+      <c r="D58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E58" t="n" s="2">
+        <v>43872.0</v>
       </c>
     </row>
     <row r="59">
@@ -2171,16 +1688,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>43836.0</v>
       </c>
-      <c r="D59" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-17.0</v>
+      <c r="D59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="2">
+        <v>43835.0</v>
       </c>
     </row>
     <row r="60">
@@ -2188,16 +1705,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D60" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-7.0</v>
+      <c r="D60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E60" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="61">
@@ -2205,16 +1722,16 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D61" t="n" s="2">
-        <v>43861.0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>40.0</v>
+      <c r="D61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E61" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="62">
@@ -2222,16 +1739,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D62" t="n" s="2">
-        <v>43918.0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-17.0</v>
+      <c r="D62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E62" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="63">
@@ -2239,16 +1756,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>43905.0</v>
       </c>
-      <c r="D63" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>18.0</v>
+      <c r="D63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E63" t="n" s="2">
+        <v>43902.0</v>
       </c>
     </row>
     <row r="64">
@@ -2256,16 +1773,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="C64" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D64" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-8.0</v>
+      <c r="D64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E64" t="n" s="2">
+        <v>43890.0</v>
       </c>
     </row>
     <row r="65">
@@ -2273,16 +1790,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C65" t="n" s="2">
         <v>43890.0</v>
       </c>
-      <c r="D65" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-13.0</v>
+      <c r="D65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E65" t="n" s="2">
+        <v>43888.0</v>
       </c>
     </row>
     <row r="66">
@@ -2290,16 +1807,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="C66" t="n" s="2">
         <v>43862.0</v>
       </c>
-      <c r="D66" t="n" s="2">
-        <v>43907.0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-45.0</v>
+      <c r="D66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E66" t="n" s="2">
+        <v>43860.0</v>
       </c>
     </row>
     <row r="67">
@@ -2307,16 +1824,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="C67" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D67" t="n" s="2">
-        <v>43915.0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-14.0</v>
+      <c r="D67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E67" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="68">
@@ -2324,16 +1841,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C68" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D68" t="n" s="2">
-        <v>43905.0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-1.0</v>
+      <c r="D68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E68" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="69">
@@ -2341,16 +1858,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="C69" t="n" s="2">
         <v>43899.0</v>
       </c>
-      <c r="D69" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.0</v>
+      <c r="D69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="70">
@@ -2358,16 +1875,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C70" t="n" s="2">
         <v>43863.0</v>
       </c>
-      <c r="D70" t="n" s="2">
-        <v>43912.0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-49.0</v>
+      <c r="D70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E70" t="n" s="2">
+        <v>43862.0</v>
       </c>
     </row>
     <row r="71">
@@ -2375,16 +1892,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n" s="2">
         <v>43895.0</v>
       </c>
-      <c r="D71" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-9.0</v>
+      <c r="D71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E71" t="n" s="2">
+        <v>43888.0</v>
       </c>
     </row>
     <row r="72">
@@ -2392,16 +1909,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C72" t="n" s="2">
         <v>43856.0</v>
       </c>
-      <c r="D72" t="n" s="2">
-        <v>43902.0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-46.0</v>
+      <c r="D72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E72" t="n" s="2">
+        <v>43855.0</v>
       </c>
     </row>
     <row r="73">
@@ -2409,16 +1926,16 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="C73" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D73" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.0</v>
+      <c r="D73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E73" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="74">
@@ -2426,16 +1943,16 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C74" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D74" t="n" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-1.0</v>
+      <c r="D74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E74" t="n" s="2">
+        <v>43882.0</v>
       </c>
     </row>
     <row r="75">
@@ -2443,16 +1960,16 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="C75" t="n" s="2">
         <v>43873.0</v>
       </c>
-      <c r="D75" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-37.0</v>
+      <c r="D75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E75" t="n" s="2">
+        <v>43871.0</v>
       </c>
     </row>
     <row r="76">
@@ -2460,16 +1977,16 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="C76" t="n" s="2">
         <v>43864.0</v>
       </c>
-      <c r="D76" t="n" s="2">
-        <v>43894.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-30.0</v>
+      <c r="D76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E76" t="n" s="2">
+        <v>43862.0</v>
       </c>
     </row>
     <row r="77">
@@ -2477,16 +1994,16 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C77" t="n" s="2">
         <v>43856.0</v>
       </c>
-      <c r="D77" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-36.0</v>
+      <c r="D77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E77" t="n" s="2">
+        <v>43854.0</v>
       </c>
     </row>
     <row r="78">
@@ -2494,16 +2011,16 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="C78" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D78" t="n" s="2">
-        <v>43860.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-22.0</v>
+      <c r="D78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E78" t="n" s="2">
+        <v>43834.0</v>
       </c>
     </row>
     <row r="79">
@@ -2511,16 +2028,16 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C79" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D79" t="n" s="2">
-        <v>43890.0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>12.0</v>
+      <c r="D79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E79" t="n" s="2">
+        <v>43900.0</v>
       </c>
     </row>
     <row r="80">
@@ -2528,16 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="C80" t="n" s="2">
         <v>43858.0</v>
       </c>
-      <c r="D80" t="n" s="2">
-        <v>43880.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-22.0</v>
+      <c r="D80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E80" t="n" s="2">
+        <v>43857.0</v>
       </c>
     </row>
     <row r="81">
@@ -2545,16 +2062,16 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="C81" t="n" s="2">
         <v>43887.0</v>
       </c>
-      <c r="D81" t="n" s="2">
+      <c r="D81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E81" t="n" s="2">
         <v>43885.0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -2562,16 +2079,16 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="C82" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D82" t="n" s="2">
-        <v>43889.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-4.0</v>
+      <c r="D82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E82" t="n" s="2">
+        <v>43881.0</v>
       </c>
     </row>
     <row r="83">
@@ -2579,16 +2096,16 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C83" t="n" s="2">
         <v>43854.0</v>
       </c>
-      <c r="D83" t="n" s="2">
-        <v>43882.0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-28.0</v>
+      <c r="D83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E83" t="n" s="2">
+        <v>43852.0</v>
       </c>
     </row>
     <row r="84">
@@ -2596,16 +2113,16 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="C84" t="n" s="2">
         <v>43852.0</v>
       </c>
-      <c r="D84" t="n" s="2">
-        <v>43861.0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-9.0</v>
+      <c r="D84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E84" t="n" s="2">
+        <v>43847.0</v>
       </c>
     </row>
     <row r="85">
@@ -2613,16 +2130,16 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="C85" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D85" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.0</v>
+      <c r="D85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E85" t="n" s="2">
+        <v>43899.0</v>
       </c>
     </row>
     <row r="86">
@@ -2630,16 +2147,16 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="C86" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D86" t="n" s="2">
-        <v>43893.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.0</v>
+      <c r="D86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E86" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="87">
@@ -2647,16 +2164,16 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="C87" t="n" s="2">
         <v>43858.0</v>
       </c>
-      <c r="D87" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.0</v>
+      <c r="D87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E87" t="n" s="2">
+        <v>43856.0</v>
       </c>
     </row>
     <row r="88">
@@ -2664,16 +2181,16 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="C88" t="n" s="2">
         <v>43895.0</v>
       </c>
-      <c r="D88" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-8.0</v>
+      <c r="D88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E88" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="89">
@@ -2681,16 +2198,16 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C89" t="n" s="2">
         <v>43863.0</v>
       </c>
-      <c r="D89" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-40.0</v>
+      <c r="D89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E89" t="n" s="2">
+        <v>43860.0</v>
       </c>
     </row>
     <row r="90">
@@ -2698,16 +2215,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="C90" t="n" s="2">
         <v>43852.0</v>
       </c>
-      <c r="D90" t="n" s="2">
-        <v>43908.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-56.0</v>
+      <c r="D90" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E90" t="n" s="2">
+        <v>43846.0</v>
       </c>
     </row>
     <row r="91">
@@ -2715,16 +2232,16 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="C91" t="n" s="2">
         <v>43880.0</v>
       </c>
-      <c r="D91" t="n" s="2">
-        <v>43857.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>23.0</v>
+      <c r="D91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E91" t="n" s="2">
+        <v>43877.0</v>
       </c>
     </row>
     <row r="92">
@@ -2732,16 +2249,16 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="C92" t="n" s="2">
         <v>43899.0</v>
       </c>
-      <c r="D92" t="n" s="2">
-        <v>43915.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-16.0</v>
+      <c r="D92" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E92" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="93">
@@ -2749,16 +2266,16 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="C93" t="n" s="2">
         <v>43888.0</v>
       </c>
-      <c r="D93" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>35.0</v>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E93" t="n" s="2">
+        <v>43887.0</v>
       </c>
     </row>
     <row r="94">
@@ -2766,16 +2283,16 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="C94" t="n" s="2">
         <v>43881.0</v>
       </c>
-      <c r="D94" t="n" s="2">
-        <v>43885.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-4.0</v>
+      <c r="D94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E94" t="n" s="2">
+        <v>43879.0</v>
       </c>
     </row>
     <row r="95">
@@ -2783,16 +2300,16 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="C95" t="n" s="2">
         <v>43878.0</v>
       </c>
-      <c r="D95" t="n" s="2">
-        <v>43914.0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-36.0</v>
+      <c r="D95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E95" t="n" s="2">
+        <v>43876.0</v>
       </c>
     </row>
     <row r="96">
@@ -2800,16 +2317,16 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="C96" t="n" s="2">
         <v>43877.0</v>
       </c>
-      <c r="D96" t="n" s="2">
-        <v>43882.0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-5.0</v>
+      <c r="D96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E96" t="n" s="2">
+        <v>43876.0</v>
       </c>
     </row>
     <row r="97">
@@ -2817,16 +2334,16 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="C97" t="n" s="2">
         <v>43899.0</v>
       </c>
-      <c r="D97" t="n" s="2">
-        <v>43906.0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-7.0</v>
+      <c r="D97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E97" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="98">
@@ -2834,16 +2351,16 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="C98" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D98" t="n" s="2">
-        <v>43914.0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-29.0</v>
+      <c r="D98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E98" t="n" s="2">
+        <v>43880.0</v>
       </c>
     </row>
     <row r="99">
@@ -2851,16 +2368,16 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="C99" t="n" s="2">
         <v>43853.0</v>
       </c>
-      <c r="D99" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-51.0</v>
+      <c r="D99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E99" t="n" s="2">
+        <v>43850.0</v>
       </c>
     </row>
     <row r="100">
@@ -2868,16 +2385,16 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C100" t="n" s="2">
         <v>43887.0</v>
       </c>
-      <c r="D100" t="n" s="2">
-        <v>43894.0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-7.0</v>
+      <c r="D100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E100" t="n" s="2">
+        <v>43884.0</v>
       </c>
     </row>
     <row r="101">
@@ -2885,16 +2402,16 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="C101" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D101" t="n" s="2">
-        <v>43857.0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>28.0</v>
+      <c r="D101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E101" t="n" s="2">
+        <v>43883.0</v>
       </c>
     </row>
     <row r="102">
@@ -2902,16 +2419,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="C102" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D102" t="n" s="2">
-        <v>43964.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-68.0</v>
+      <c r="D102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E102" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="103">
@@ -2919,16 +2436,16 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="C103" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D103" t="n" s="2">
-        <v>43890.0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-52.0</v>
+      <c r="D103" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E103" t="n" s="2">
+        <v>43832.0</v>
       </c>
     </row>
     <row r="104">
@@ -2936,16 +2453,16 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="C104" t="n" s="2">
         <v>43890.0</v>
       </c>
-      <c r="D104" t="n" s="2">
-        <v>43890.0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.0</v>
+      <c r="D104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E104" t="n" s="2">
+        <v>43887.0</v>
       </c>
     </row>
     <row r="105">
@@ -2953,16 +2470,16 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C105" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D105" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-54.0</v>
+      <c r="D105" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E105" t="n" s="2">
+        <v>43833.0</v>
       </c>
     </row>
     <row r="106">
@@ -2970,16 +2487,16 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="C106" t="n" s="2">
         <v>43855.0</v>
       </c>
-      <c r="D106" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-37.0</v>
+      <c r="D106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E106" t="n" s="2">
+        <v>43852.0</v>
       </c>
     </row>
     <row r="107">
@@ -2987,16 +2504,16 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="C107" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D107" t="n" s="2">
-        <v>43898.0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>6.0</v>
+      <c r="D107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E107" t="n" s="2">
+        <v>43900.0</v>
       </c>
     </row>
     <row r="108">
@@ -3004,16 +2521,16 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="C108" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D108" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-10.0</v>
+      <c r="D108" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E108" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="109">
@@ -3021,16 +2538,16 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="C109" t="n" s="2">
         <v>43898.0</v>
       </c>
-      <c r="D109" t="n" s="2">
-        <v>43898.0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.0</v>
+      <c r="D109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E109" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="110">
@@ -3038,16 +2555,16 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="C110" t="n" s="2">
         <v>43893.0</v>
       </c>
-      <c r="D110" t="n" s="2">
+      <c r="D110" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E110" t="n" s="2">
         <v>43889.0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="111">
@@ -3055,16 +2572,16 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C111" t="n" s="2">
         <v>43860.0</v>
       </c>
-      <c r="D111" t="n" s="2">
-        <v>44132.0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-272.0</v>
+      <c r="D111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E111" t="n" s="2">
+        <v>43858.0</v>
       </c>
     </row>
     <row r="112">
@@ -3072,16 +2589,16 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="C112" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D112" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>13.0</v>
+      <c r="D112" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E112" t="n" s="2">
+        <v>43892.0</v>
       </c>
     </row>
     <row r="113">
@@ -3089,16 +2606,16 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="C113" t="n" s="2">
         <v>43834.0</v>
       </c>
-      <c r="D113" t="n" s="2">
-        <v>43915.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-81.0</v>
+      <c r="D113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E113" t="n" s="2">
+        <v>43832.0</v>
       </c>
     </row>
     <row r="114">
@@ -3106,16 +2623,16 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="C114" t="n" s="2">
         <v>43849.0</v>
       </c>
-      <c r="D114" t="n" s="2">
-        <v>43897.0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-48.0</v>
+      <c r="D114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E114" t="n" s="2">
+        <v>43848.0</v>
       </c>
     </row>
     <row r="115">
@@ -3123,16 +2640,16 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C115" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D115" t="n" s="2">
-        <v>43917.0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-32.0</v>
+      <c r="D115" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E115" t="n" s="2">
+        <v>43879.0</v>
       </c>
     </row>
     <row r="116">
@@ -3140,16 +2657,16 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="C116" t="n" s="2">
         <v>43865.0</v>
       </c>
-      <c r="D116" t="n" s="2">
-        <v>43907.0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-42.0</v>
+      <c r="D116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E116" t="n" s="2">
+        <v>43864.0</v>
       </c>
     </row>
     <row r="117">
@@ -3157,16 +2674,16 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C117" t="n" s="2">
         <v>43831.0</v>
       </c>
-      <c r="D117" t="n" s="2">
-        <v>43900.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-69.0</v>
+      <c r="D117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E117" t="n" s="2">
+        <v>43830.0</v>
       </c>
     </row>
     <row r="118">
@@ -3174,16 +2691,16 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c r="C118" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D118" t="n" s="2">
-        <v>43912.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-9.0</v>
+      <c r="D118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E118" t="n" s="2">
+        <v>43901.0</v>
       </c>
     </row>
     <row r="119">
@@ -3191,16 +2708,16 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="C119" t="n" s="2">
         <v>43859.0</v>
       </c>
-      <c r="D119" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-45.0</v>
+      <c r="D119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E119" t="n" s="2">
+        <v>43856.0</v>
       </c>
     </row>
     <row r="120">
@@ -3208,16 +2725,16 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="C120" t="n" s="2">
         <v>43863.0</v>
       </c>
-      <c r="D120" t="n" s="2">
-        <v>43908.0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-45.0</v>
+      <c r="D120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E120" t="n" s="2">
+        <v>43861.0</v>
       </c>
     </row>
     <row r="121">
@@ -3225,16 +2742,16 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="C121" t="n" s="2">
         <v>43835.0</v>
       </c>
-      <c r="D121" t="n" s="2">
-        <v>43923.0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-88.0</v>
+      <c r="D121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E121" t="n" s="2">
+        <v>43834.0</v>
       </c>
     </row>
     <row r="122">
@@ -3242,16 +2759,16 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="C122" t="n" s="2">
         <v>43881.0</v>
       </c>
-      <c r="D122" t="n" s="2">
-        <v>43855.0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>26.0</v>
+      <c r="D122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E122" t="n" s="2">
+        <v>43878.0</v>
       </c>
     </row>
     <row r="123">
@@ -3259,16 +2776,16 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="C123" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D123" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.0</v>
+      <c r="D123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E123" t="n" s="2">
+        <v>43901.0</v>
       </c>
     </row>
     <row r="124">
@@ -3276,16 +2793,16 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="C124" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D124" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-7.0</v>
+      <c r="D124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E124" t="n" s="2">
+        <v>43900.0</v>
       </c>
     </row>
     <row r="125">
@@ -3293,16 +2810,16 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="C125" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D125" t="n" s="2">
-        <v>43889.0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>14.0</v>
+      <c r="D125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E125" t="n" s="2">
+        <v>43899.0</v>
       </c>
     </row>
     <row r="126">
@@ -3310,16 +2827,16 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="C126" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D126" t="n" s="2">
-        <v>43909.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-8.0</v>
+      <c r="D126" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E126" t="n" s="2">
+        <v>43899.0</v>
       </c>
     </row>
     <row r="127">
@@ -3327,16 +2844,16 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="C127" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D127" t="n" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>8.0</v>
+      <c r="D127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E127" t="n" s="2">
+        <v>43892.0</v>
       </c>
     </row>
     <row r="128">
@@ -3344,16 +2861,16 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="C128" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D128" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-14.0</v>
+      <c r="D128" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E128" t="n" s="2">
+        <v>43892.0</v>
       </c>
     </row>
     <row r="129">
@@ -3361,16 +2878,16 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="C129" t="n" s="2">
         <v>43895.0</v>
       </c>
-      <c r="D129" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>8.0</v>
+      <c r="D129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E129" t="n" s="2">
+        <v>43890.0</v>
       </c>
     </row>
     <row r="130">
@@ -3378,16 +2895,16 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="C130" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D130" t="n" s="2">
-        <v>43889.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>13.0</v>
+      <c r="D130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E130" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="131">
@@ -3395,16 +2912,16 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="C131" t="n" s="2">
         <v>43834.0</v>
       </c>
-      <c r="D131" t="n" s="2">
-        <v>43885.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-51.0</v>
+      <c r="D131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E131" t="n" s="2">
+        <v>43831.0</v>
       </c>
     </row>
     <row r="132">
@@ -3412,16 +2929,16 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="C132" t="n" s="2">
         <v>43873.0</v>
       </c>
-      <c r="D132" t="n" s="2">
-        <v>43886.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-13.0</v>
+      <c r="D132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E132" t="n" s="2">
+        <v>43872.0</v>
       </c>
     </row>
     <row r="133">
@@ -3429,16 +2946,16 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="C133" t="n" s="2">
         <v>43834.0</v>
       </c>
-      <c r="D133" t="n" s="2">
-        <v>43900.0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-66.0</v>
+      <c r="D133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E133" t="n" s="2">
+        <v>43833.0</v>
       </c>
     </row>
     <row r="134">
@@ -3446,16 +2963,16 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="C134" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D134" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>5.0</v>
+      <c r="D134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E134" t="n" s="2">
+        <v>43900.0</v>
       </c>
     </row>
     <row r="135">
@@ -3463,16 +2980,16 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="C135" t="n" s="2">
         <v>43849.0</v>
       </c>
-      <c r="D135" t="n" s="2">
-        <v>43860.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-11.0</v>
+      <c r="D135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E135" t="n" s="2">
+        <v>43847.0</v>
       </c>
     </row>
     <row r="136">
@@ -3480,16 +2997,16 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="C136" t="n" s="2">
         <v>43870.0</v>
       </c>
-      <c r="D136" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-40.0</v>
+      <c r="D136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E136" t="n" s="2">
+        <v>43869.0</v>
       </c>
     </row>
     <row r="137">
@@ -3497,16 +3014,16 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="C137" t="n" s="2">
         <v>43861.0</v>
       </c>
-      <c r="D137" t="n" s="2">
-        <v>43894.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-33.0</v>
+      <c r="D137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E137" t="n" s="2">
+        <v>43859.0</v>
       </c>
     </row>
     <row r="138">
@@ -3514,16 +3031,16 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="C138" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D138" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8.0</v>
+      <c r="D138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E138" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="139">
@@ -3531,16 +3048,16 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="C139" t="n" s="2">
         <v>43868.0</v>
       </c>
-      <c r="D139" t="n" s="2">
-        <v>43898.0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-30.0</v>
+      <c r="D139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E139" t="n" s="2">
+        <v>43867.0</v>
       </c>
     </row>
     <row r="140">
@@ -3548,16 +3065,16 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="C140" t="n" s="2">
         <v>43864.0</v>
       </c>
-      <c r="D140" t="n" s="2">
-        <v>43895.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-31.0</v>
+      <c r="D140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E140" t="n" s="2">
+        <v>43863.0</v>
       </c>
     </row>
     <row r="141">
@@ -3565,16 +3082,16 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="C141" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D141" t="n" s="2">
-        <v>43890.0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6.0</v>
+      <c r="D141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E141" t="n" s="2">
+        <v>43894.0</v>
       </c>
     </row>
     <row r="142">
@@ -3582,16 +3099,16 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="C142" t="n" s="2">
         <v>43899.0</v>
       </c>
-      <c r="D142" t="n" s="2">
-        <v>43887.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.0</v>
+      <c r="D142" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E142" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="143">
@@ -3599,16 +3116,16 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="C143" t="n" s="2">
         <v>43831.0</v>
       </c>
-      <c r="D143" t="n" s="2">
-        <v>43861.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-30.0</v>
+      <c r="D143" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E143" t="n" s="2">
+        <v>43829.0</v>
       </c>
     </row>
     <row r="144">
@@ -3616,16 +3133,16 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="C144" t="n" s="2">
         <v>43888.0</v>
       </c>
-      <c r="D144" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-16.0</v>
+      <c r="D144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E144" t="n" s="2">
+        <v>43885.0</v>
       </c>
     </row>
     <row r="145">
@@ -3633,16 +3150,16 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="C145" t="n" s="2">
         <v>43888.0</v>
       </c>
-      <c r="D145" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-4.0</v>
+      <c r="D145" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E145" t="n" s="2">
+        <v>43882.0</v>
       </c>
     </row>
     <row r="146">
@@ -3650,16 +3167,16 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="C146" t="n" s="2">
         <v>43850.0</v>
       </c>
-      <c r="D146" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-54.0</v>
+      <c r="D146" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E146" t="n" s="2">
+        <v>43848.0</v>
       </c>
     </row>
     <row r="147">
@@ -3667,16 +3184,16 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>332</v>
+        <v>198</v>
       </c>
       <c r="C147" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D147" t="n" s="2">
-        <v>43892.0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.0</v>
+      <c r="D147" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E147" t="n" s="2">
+        <v>43902.0</v>
       </c>
     </row>
     <row r="148">
@@ -3684,16 +3201,16 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="C148" t="n" s="2">
         <v>43832.0</v>
       </c>
-      <c r="D148" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-21.0</v>
+      <c r="D148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E148" t="n" s="2">
+        <v>43829.0</v>
       </c>
     </row>
     <row r="149">
@@ -3701,16 +3218,16 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
       <c r="C149" t="n" s="2">
         <v>43892.0</v>
       </c>
-      <c r="D149" t="n" s="2">
-        <v>44116.0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-224.0</v>
+      <c r="D149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E149" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="150">
@@ -3718,16 +3235,16 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="C150" t="n" s="2">
         <v>43880.0</v>
       </c>
-      <c r="D150" t="n" s="2">
-        <v>43921.0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-41.0</v>
+      <c r="D150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E150" t="n" s="2">
+        <v>43879.0</v>
       </c>
     </row>
     <row r="151">
@@ -3735,16 +3252,16 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="C151" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D151" t="n" s="2">
-        <v>43909.0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-8.0</v>
+      <c r="D151" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E151" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="152">
@@ -3752,16 +3269,16 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="C152" t="n" s="2">
         <v>43898.0</v>
       </c>
-      <c r="D152" t="n" s="2">
-        <v>43888.0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>10.0</v>
+      <c r="D152" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E152" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="153">
@@ -3769,16 +3286,16 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="C153" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D153" t="n" s="2">
-        <v>43906.0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-4.0</v>
+      <c r="D153" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E153" t="n" s="2">
+        <v>43898.0</v>
       </c>
     </row>
     <row r="154">
@@ -3786,16 +3303,16 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="C154" t="n" s="2">
         <v>43887.0</v>
       </c>
-      <c r="D154" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-9.0</v>
+      <c r="D154" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E154" t="n" s="2">
+        <v>43883.0</v>
       </c>
     </row>
     <row r="155">
@@ -3803,16 +3320,16 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="C155" t="n" s="2">
         <v>43881.0</v>
       </c>
-      <c r="D155" t="n" s="2">
-        <v>43926.0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-45.0</v>
+      <c r="D155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E155" t="n" s="2">
+        <v>43880.0</v>
       </c>
     </row>
     <row r="156">
@@ -3820,16 +3337,16 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="C156" t="n" s="2">
         <v>43901.0</v>
       </c>
-      <c r="D156" t="n" s="2">
-        <v>43927.0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-26.0</v>
+      <c r="D156" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E156" t="n" s="2">
+        <v>43894.0</v>
       </c>
     </row>
     <row r="157">
@@ -3837,16 +3354,16 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="C157" t="n" s="2">
         <v>43867.0</v>
       </c>
-      <c r="D157" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-37.0</v>
+      <c r="D157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E157" t="n" s="2">
+        <v>43866.0</v>
       </c>
     </row>
     <row r="158">
@@ -3854,16 +3371,16 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c r="C158" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D158" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.0</v>
+      <c r="D158" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E158" t="n" s="2">
+        <v>43891.0</v>
       </c>
     </row>
     <row r="159">
@@ -3871,16 +3388,16 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="C159" t="n" s="2">
         <v>43888.0</v>
       </c>
-      <c r="D159" t="n" s="2">
-        <v>43895.0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-7.0</v>
+      <c r="D159" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E159" t="n" s="2">
+        <v>43883.0</v>
       </c>
     </row>
     <row r="160">
@@ -3888,16 +3405,16 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>205</v>
       </c>
       <c r="C160" t="n" s="2">
         <v>43862.0</v>
       </c>
-      <c r="D160" t="n" s="2">
-        <v>43862.0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.0</v>
+      <c r="D160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E160" t="n" s="2">
+        <v>43859.0</v>
       </c>
     </row>
     <row r="161">
@@ -3905,16 +3422,16 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="C161" t="n" s="2">
         <v>43886.0</v>
       </c>
-      <c r="D161" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-18.0</v>
+      <c r="D161" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E161" t="n" s="2">
+        <v>43884.0</v>
       </c>
     </row>
     <row r="162">
@@ -3922,16 +3439,16 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="C162" t="n" s="2">
         <v>43859.0</v>
       </c>
-      <c r="D162" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-45.0</v>
+      <c r="D162" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E162" t="n" s="2">
+        <v>43855.0</v>
       </c>
     </row>
     <row r="163">
@@ -3939,16 +3456,16 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="C163" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D163" t="n" s="2">
-        <v>43912.0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-9.0</v>
+      <c r="D163" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E163" t="n" s="2">
+        <v>43897.0</v>
       </c>
     </row>
     <row r="164">
@@ -3956,16 +3473,16 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="C164" t="n" s="2">
         <v>43838.0</v>
       </c>
-      <c r="D164" t="n" s="2">
-        <v>43909.0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-71.0</v>
+      <c r="D164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E164" t="n" s="2">
+        <v>43835.0</v>
       </c>
     </row>
     <row r="165">
@@ -3973,16 +3490,16 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="C165" t="n" s="2">
         <v>43906.0</v>
       </c>
-      <c r="D165" t="n" s="2">
-        <v>43896.0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>10.0</v>
+      <c r="D165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E165" t="n" s="2">
+        <v>43905.0</v>
       </c>
     </row>
     <row r="166">
@@ -3990,16 +3507,16 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="C166" t="n" s="2">
         <v>43833.0</v>
       </c>
-      <c r="D166" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-20.0</v>
+      <c r="D166" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E166" t="n" s="2">
+        <v>43831.0</v>
       </c>
     </row>
     <row r="167">
@@ -4007,16 +3524,16 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
       <c r="C167" t="n" s="2">
         <v>43853.0</v>
       </c>
-      <c r="D167" t="n" s="2">
-        <v>43951.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-98.0</v>
+      <c r="D167" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E167" t="n" s="2">
+        <v>43849.0</v>
       </c>
     </row>
     <row r="168">
@@ -4024,16 +3541,16 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="C168" t="n" s="2">
         <v>43852.0</v>
       </c>
-      <c r="D168" t="n" s="2">
-        <v>43912.0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-60.0</v>
+      <c r="D168" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E168" t="n" s="2">
+        <v>43845.0</v>
       </c>
     </row>
     <row r="169">
@@ -4041,16 +3558,16 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="C169" t="n" s="2">
         <v>43860.0</v>
       </c>
-      <c r="D169" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-44.0</v>
+      <c r="D169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E169" t="n" s="2">
+        <v>43857.0</v>
       </c>
     </row>
     <row r="170">
@@ -4058,16 +3575,16 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="C170" t="n" s="2">
         <v>43855.0</v>
       </c>
-      <c r="D170" t="n" s="2">
-        <v>43894.0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-39.0</v>
+      <c r="D170" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E170" t="n" s="2">
+        <v>43853.0</v>
       </c>
     </row>
     <row r="171">
@@ -4075,16 +3592,16 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>193</v>
       </c>
       <c r="C171" t="n" s="2">
         <v>43854.0</v>
       </c>
-      <c r="D171" t="n" s="2">
-        <v>43901.0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-47.0</v>
+      <c r="D171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E171" t="n" s="2">
+        <v>43853.0</v>
       </c>
     </row>
     <row r="172">
@@ -4092,16 +3609,16 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="C172" t="n" s="2">
         <v>43886.0</v>
       </c>
-      <c r="D172" t="n" s="2">
-        <v>43906.0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-20.0</v>
+      <c r="D172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E172" t="n" s="2">
+        <v>43885.0</v>
       </c>
     </row>
     <row r="173">
@@ -4109,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="C173" t="n" s="2">
         <v>43897.0</v>
       </c>
-      <c r="D173" t="n" s="2">
-        <v>43911.0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-14.0</v>
+      <c r="D173" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E173" t="n" s="2">
+        <v>43892.0</v>
       </c>
     </row>
     <row r="174">
@@ -4126,16 +3643,16 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="C174" t="n" s="2">
         <v>43880.0</v>
       </c>
-      <c r="D174" t="n" s="2">
-        <v>43893.0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-13.0</v>
+      <c r="D174" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E174" t="n" s="2">
+        <v>43878.0</v>
       </c>
     </row>
     <row r="175">
@@ -4143,16 +3660,16 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="C175" t="n" s="2">
         <v>43903.0</v>
       </c>
-      <c r="D175" t="n" s="2">
-        <v>43903.0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.0</v>
+      <c r="D175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E175" t="n" s="2">
+        <v>43902.0</v>
       </c>
     </row>
     <row r="176">
@@ -4160,16 +3677,16 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="C176" t="n" s="2">
         <v>43837.0</v>
       </c>
-      <c r="D176" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-16.0</v>
+      <c r="D176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E176" t="n" s="2">
+        <v>43835.0</v>
       </c>
     </row>
     <row r="177">
@@ -4177,16 +3694,16 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="C177" t="n" s="2">
         <v>43892.0</v>
       </c>
-      <c r="D177" t="n" s="2">
-        <v>43905.0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-13.0</v>
+      <c r="D177" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E177" t="n" s="2">
+        <v>43890.0</v>
       </c>
     </row>
     <row r="178">
@@ -4194,16 +3711,16 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="C178" t="n" s="2">
         <v>43882.0</v>
       </c>
-      <c r="D178" t="n" s="2">
-        <v>43904.0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-22.0</v>
+      <c r="D178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E178" t="n" s="2">
+        <v>43881.0</v>
       </c>
     </row>
     <row r="179">
@@ -4211,16 +3728,16 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="C179" t="n" s="2">
         <v>43905.0</v>
       </c>
-      <c r="D179" t="n" s="2">
+      <c r="D179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E179" t="n" s="2">
         <v>43904.0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -4228,16 +3745,16 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="C180" t="n" s="2">
         <v>43853.0</v>
       </c>
-      <c r="D180" t="n" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.0</v>
+      <c r="D180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E180" t="n" s="2">
+        <v>43852.0</v>
       </c>
     </row>
     <row r="181">
@@ -4245,16 +3762,16 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>207</v>
       </c>
       <c r="C181" t="n" s="2">
         <v>43872.0</v>
       </c>
-      <c r="D181" t="n" s="2">
-        <v>44145.0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-273.0</v>
+      <c r="D181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E181" t="n" s="2">
+        <v>43871.0</v>
       </c>
     </row>
     <row r="182">
@@ -4262,16 +3779,16 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>210</v>
       </c>
       <c r="C182" t="n" s="2">
         <v>43896.0</v>
       </c>
-      <c r="D182" t="n" s="2">
-        <v>44153.0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-257.0</v>
+      <c r="D182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E182" t="n" s="2">
+        <v>43895.0</v>
       </c>
     </row>
     <row r="183">
@@ -4279,16 +3796,16 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="C183" t="n" s="2">
         <v>43904.0</v>
       </c>
-      <c r="D183" t="n" s="2">
-        <v>43931.0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-27.0</v>
+      <c r="D183" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E183" t="n" s="2">
+        <v>43896.0</v>
       </c>
     </row>
     <row r="184">
@@ -4296,16 +3813,16 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="C184" t="n" s="2">
         <v>43900.0</v>
       </c>
-      <c r="D184" t="n" s="2">
-        <v>43895.0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.0</v>
+      <c r="D184" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E184" t="n" s="2">
+        <v>43893.0</v>
       </c>
     </row>
     <row r="185">
@@ -4313,16 +3830,16 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>197</v>
       </c>
       <c r="C185" t="n" s="2">
         <v>43885.0</v>
       </c>
-      <c r="D185" t="n" s="2">
-        <v>43908.0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-23.0</v>
+      <c r="D185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E185" t="n" s="2">
+        <v>43884.0</v>
       </c>
     </row>
     <row r="186">
@@ -4330,16 +3847,16 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>197</v>
       </c>
       <c r="C186" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D186" t="n" s="2">
-        <v>43910.0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-8.0</v>
+      <c r="D186" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E186" t="n" s="2">
+        <v>43899.0</v>
       </c>
     </row>
   </sheetData>

--- a/first_measure_first_case_comparison.xlsx
+++ b/first_measure_first_case_comparison.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
   <si>
     <t>country</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
   <si>
     <t>Southern Asia</t>
@@ -719,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>43854.0</v>
@@ -736,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>43867.0</v>
@@ -753,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>43854.0</v>
@@ -770,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>43878.0</v>
@@ -787,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>43861.0</v>
@@ -804,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>43861.0</v>
@@ -821,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>43878.0</v>
@@ -838,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>43900.0</v>
@@ -855,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>43890.0</v>
@@ -872,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>43896.0</v>
@@ -889,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>43862.0</v>
@@ -906,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>43893.0</v>
@@ -923,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>43838.0</v>
@@ -940,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>43838.0</v>
@@ -957,7 +960,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>43833.0</v>
@@ -974,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>43887.0</v>
@@ -991,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>43852.0</v>
@@ -1008,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>43885.0</v>
@@ -1025,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>43902.0</v>
@@ -1042,7 +1045,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>43853.0</v>
@@ -1059,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>43904.0</v>
@@ -1076,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>43897.0</v>
@@ -1093,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>43852.0</v>
@@ -1110,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>43860.0</v>
@@ -1127,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>43859.0</v>
@@ -1144,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>43903.0</v>
@@ -1161,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>43859.0</v>
@@ -1178,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>43855.0</v>
@@ -1195,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>43874.0</v>
@@ -1212,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>43900.0</v>
@@ -1229,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>43850.0</v>
@@ -1246,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>43832.0</v>
@@ -1263,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>43897.0</v>
@@ -1280,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>43900.0</v>
@@ -1297,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>43894.0</v>
@@ -1314,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>43902.0</v>
@@ -1331,7 +1334,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>43900.0</v>
@@ -1348,7 +1351,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>43892.0</v>
@@ -1365,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>43904.0</v>
@@ -1382,7 +1385,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>43858.0</v>
@@ -1399,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>43897.0</v>
@@ -1416,7 +1419,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>43864.0</v>
@@ -1433,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>43867.0</v>
@@ -1450,7 +1453,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>43839.0</v>
@@ -1467,7 +1470,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>43854.0</v>
@@ -1484,7 +1487,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>43888.0</v>
@@ -1501,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>43875.0</v>
@@ -1518,7 +1521,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>43895.0</v>
@@ -1535,7 +1538,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>43892.0</v>
@@ -1552,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>43905.0</v>
@@ -1569,7 +1572,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>43893.0</v>
@@ -1586,7 +1589,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>43893.0</v>
@@ -1603,7 +1606,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>43839.0</v>
@@ -1620,7 +1623,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>43883.0</v>
@@ -1637,7 +1640,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>43837.0</v>
@@ -1654,7 +1657,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>43897.0</v>
@@ -1671,7 +1674,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>43874.0</v>
@@ -1688,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>43836.0</v>
@@ -1705,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>43897.0</v>
@@ -1722,7 +1725,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>43901.0</v>
@@ -1739,7 +1742,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>43901.0</v>
@@ -1756,16 +1759,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C63" t="n" s="2">
-        <v>43905.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D63" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E63" t="n" s="2">
-        <v>43902.0</v>
+        <v>43897.0</v>
       </c>
     </row>
     <row r="64">
@@ -1773,16 +1776,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C64" t="n" s="2">
-        <v>43896.0</v>
+        <v>43905.0</v>
       </c>
       <c r="D64" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E64" t="n" s="2">
-        <v>43890.0</v>
+        <v>43902.0</v>
       </c>
     </row>
     <row r="65">
@@ -1790,16 +1793,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C65" t="n" s="2">
+        <v>43896.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E65" t="n" s="2">
         <v>43890.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E65" t="n" s="2">
-        <v>43888.0</v>
       </c>
     </row>
     <row r="66">
@@ -1807,16 +1810,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C66" t="n" s="2">
-        <v>43862.0</v>
+        <v>43890.0</v>
       </c>
       <c r="D66" t="n">
         <v>2.0</v>
       </c>
       <c r="E66" t="n" s="2">
-        <v>43860.0</v>
+        <v>43888.0</v>
       </c>
     </row>
     <row r="67">
@@ -1824,16 +1827,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C67" t="n" s="2">
-        <v>43901.0</v>
+        <v>43862.0</v>
       </c>
       <c r="D67" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E67" t="n" s="2">
-        <v>43896.0</v>
+        <v>43860.0</v>
       </c>
     </row>
     <row r="68">
@@ -1841,16 +1844,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C68" t="n" s="2">
-        <v>43904.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D68" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E68" t="n" s="2">
-        <v>43895.0</v>
+        <v>43896.0</v>
       </c>
     </row>
     <row r="69">
@@ -1861,13 +1864,13 @@
         <v>191</v>
       </c>
       <c r="C69" t="n" s="2">
-        <v>43899.0</v>
+        <v>43904.0</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E69" t="n" s="2">
-        <v>43898.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="70">
@@ -1875,16 +1878,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" t="n" s="2">
-        <v>43863.0</v>
+        <v>43899.0</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="E70" t="n" s="2">
-        <v>43862.0</v>
+        <v>43898.0</v>
       </c>
     </row>
     <row r="71">
@@ -1892,16 +1895,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C71" t="n" s="2">
-        <v>43895.0</v>
+        <v>43863.0</v>
       </c>
       <c r="D71" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E71" t="n" s="2">
-        <v>43888.0</v>
+        <v>43862.0</v>
       </c>
     </row>
     <row r="72">
@@ -1909,16 +1912,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C72" t="n" s="2">
-        <v>43856.0</v>
+        <v>43895.0</v>
       </c>
       <c r="D72" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E72" t="n" s="2">
-        <v>43855.0</v>
+        <v>43888.0</v>
       </c>
     </row>
     <row r="73">
@@ -1926,16 +1929,16 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C73" t="n" s="2">
-        <v>43901.0</v>
+        <v>43856.0</v>
       </c>
       <c r="D73" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E73" t="n" s="2">
-        <v>43898.0</v>
+        <v>43855.0</v>
       </c>
     </row>
     <row r="74">
@@ -1943,16 +1946,16 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C74" t="n" s="2">
-        <v>43885.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D74" t="n">
         <v>3.0</v>
       </c>
       <c r="E74" t="n" s="2">
-        <v>43882.0</v>
+        <v>43898.0</v>
       </c>
     </row>
     <row r="75">
@@ -1960,16 +1963,16 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" t="n" s="2">
-        <v>43873.0</v>
+        <v>43885.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E75" t="n" s="2">
-        <v>43871.0</v>
+        <v>43882.0</v>
       </c>
     </row>
     <row r="76">
@@ -1977,16 +1980,16 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C76" t="n" s="2">
-        <v>43864.0</v>
+        <v>43873.0</v>
       </c>
       <c r="D76" t="n">
         <v>2.0</v>
       </c>
       <c r="E76" t="n" s="2">
-        <v>43862.0</v>
+        <v>43871.0</v>
       </c>
     </row>
     <row r="77">
@@ -1994,16 +1997,16 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" t="n" s="2">
-        <v>43856.0</v>
+        <v>43864.0</v>
       </c>
       <c r="D77" t="n">
         <v>2.0</v>
       </c>
       <c r="E77" t="n" s="2">
-        <v>43854.0</v>
+        <v>43862.0</v>
       </c>
     </row>
     <row r="78">
@@ -2011,16 +2014,16 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C78" t="n" s="2">
-        <v>43838.0</v>
+        <v>43856.0</v>
       </c>
       <c r="D78" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E78" t="n" s="2">
-        <v>43834.0</v>
+        <v>43854.0</v>
       </c>
     </row>
     <row r="79">
@@ -2028,16 +2031,16 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C79" t="n" s="2">
-        <v>43902.0</v>
+        <v>43838.0</v>
       </c>
       <c r="D79" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E79" t="n" s="2">
-        <v>43900.0</v>
+        <v>43834.0</v>
       </c>
     </row>
     <row r="80">
@@ -2045,16 +2048,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C80" t="n" s="2">
-        <v>43858.0</v>
+        <v>43902.0</v>
       </c>
       <c r="D80" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E80" t="n" s="2">
-        <v>43857.0</v>
+        <v>43900.0</v>
       </c>
     </row>
     <row r="81">
@@ -2062,16 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C81" t="n" s="2">
-        <v>43887.0</v>
+        <v>43858.0</v>
       </c>
       <c r="D81" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E81" t="n" s="2">
-        <v>43885.0</v>
+        <v>43857.0</v>
       </c>
     </row>
     <row r="82">
@@ -2079,16 +2082,16 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C82" t="n" s="2">
+        <v>43887.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E82" t="n" s="2">
         <v>43885.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E82" t="n" s="2">
-        <v>43881.0</v>
       </c>
     </row>
     <row r="83">
@@ -2096,16 +2099,16 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C83" t="n" s="2">
-        <v>43854.0</v>
+        <v>43885.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E83" t="n" s="2">
-        <v>43852.0</v>
+        <v>43881.0</v>
       </c>
     </row>
     <row r="84">
@@ -2113,16 +2116,16 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C84" t="n" s="2">
+        <v>43854.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E84" t="n" s="2">
         <v>43852.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E84" t="n" s="2">
-        <v>43847.0</v>
       </c>
     </row>
     <row r="85">
@@ -2130,16 +2133,16 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" t="n" s="2">
-        <v>43904.0</v>
+        <v>43852.0</v>
       </c>
       <c r="D85" t="n">
         <v>5.0</v>
       </c>
       <c r="E85" t="n" s="2">
-        <v>43899.0</v>
+        <v>43847.0</v>
       </c>
     </row>
     <row r="86">
@@ -2147,16 +2150,16 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C86" t="n" s="2">
         <v>43904.0</v>
       </c>
       <c r="D86" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E86" t="n" s="2">
-        <v>43898.0</v>
+        <v>43899.0</v>
       </c>
     </row>
     <row r="87">
@@ -2164,16 +2167,16 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C87" t="n" s="2">
-        <v>43858.0</v>
+        <v>43904.0</v>
       </c>
       <c r="D87" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E87" t="n" s="2">
-        <v>43856.0</v>
+        <v>43898.0</v>
       </c>
     </row>
     <row r="88">
@@ -2181,16 +2184,16 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C88" t="n" s="2">
-        <v>43895.0</v>
+        <v>43858.0</v>
       </c>
       <c r="D88" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88" t="n" s="2">
-        <v>43891.0</v>
+        <v>43856.0</v>
       </c>
     </row>
     <row r="89">
@@ -2198,16 +2201,16 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C89" t="n" s="2">
-        <v>43863.0</v>
+        <v>43895.0</v>
       </c>
       <c r="D89" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E89" t="n" s="2">
-        <v>43860.0</v>
+        <v>43891.0</v>
       </c>
     </row>
     <row r="90">
@@ -2215,16 +2218,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C90" t="n" s="2">
-        <v>43852.0</v>
+        <v>43863.0</v>
       </c>
       <c r="D90" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E90" t="n" s="2">
-        <v>43846.0</v>
+        <v>43860.0</v>
       </c>
     </row>
     <row r="91">
@@ -2232,16 +2235,16 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C91" t="n" s="2">
-        <v>43880.0</v>
+        <v>43852.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E91" t="n" s="2">
-        <v>43877.0</v>
+        <v>43846.0</v>
       </c>
     </row>
     <row r="92">
@@ -2249,16 +2252,16 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C92" t="n" s="2">
-        <v>43899.0</v>
+        <v>43880.0</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E92" t="n" s="2">
-        <v>43895.0</v>
+        <v>43877.0</v>
       </c>
     </row>
     <row r="93">
@@ -2266,16 +2269,16 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C93" t="n" s="2">
-        <v>43888.0</v>
+        <v>43899.0</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E93" t="n" s="2">
-        <v>43887.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="94">
@@ -2283,16 +2286,16 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C94" t="n" s="2">
-        <v>43881.0</v>
+        <v>43888.0</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E94" t="n" s="2">
-        <v>43879.0</v>
+        <v>43887.0</v>
       </c>
     </row>
     <row r="95">
@@ -2300,16 +2303,16 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C95" t="n" s="2">
-        <v>43878.0</v>
+        <v>43881.0</v>
       </c>
       <c r="D95" t="n">
         <v>2.0</v>
       </c>
       <c r="E95" t="n" s="2">
-        <v>43876.0</v>
+        <v>43879.0</v>
       </c>
     </row>
     <row r="96">
@@ -2317,13 +2320,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C96" t="n" s="2">
-        <v>43877.0</v>
+        <v>43878.0</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E96" t="n" s="2">
         <v>43876.0</v>
@@ -2334,16 +2337,16 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C97" t="n" s="2">
-        <v>43899.0</v>
+        <v>43877.0</v>
       </c>
       <c r="D97" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E97" t="n" s="2">
-        <v>43896.0</v>
+        <v>43876.0</v>
       </c>
     </row>
     <row r="98">
@@ -2351,16 +2354,16 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C98" t="n" s="2">
-        <v>43885.0</v>
+        <v>43899.0</v>
       </c>
       <c r="D98" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E98" t="n" s="2">
-        <v>43880.0</v>
+        <v>43896.0</v>
       </c>
     </row>
     <row r="99">
@@ -2368,16 +2371,16 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C99" t="n" s="2">
-        <v>43853.0</v>
+        <v>43885.0</v>
       </c>
       <c r="D99" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E99" t="n" s="2">
-        <v>43850.0</v>
+        <v>43880.0</v>
       </c>
     </row>
     <row r="100">
@@ -2385,16 +2388,16 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" t="n" s="2">
-        <v>43887.0</v>
+        <v>43853.0</v>
       </c>
       <c r="D100" t="n">
         <v>3.0</v>
       </c>
       <c r="E100" t="n" s="2">
-        <v>43884.0</v>
+        <v>43850.0</v>
       </c>
     </row>
     <row r="101">
@@ -2402,16 +2405,16 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C101" t="n" s="2">
-        <v>43885.0</v>
+        <v>43887.0</v>
       </c>
       <c r="D101" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E101" t="n" s="2">
-        <v>43883.0</v>
+        <v>43884.0</v>
       </c>
     </row>
     <row r="102">
@@ -2419,16 +2422,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C102" t="n" s="2">
-        <v>43896.0</v>
+        <v>43885.0</v>
       </c>
       <c r="D102" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E102" t="n" s="2">
-        <v>43891.0</v>
+        <v>43883.0</v>
       </c>
     </row>
     <row r="103">
@@ -2436,16 +2439,16 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" t="n" s="2">
-        <v>43838.0</v>
+        <v>43896.0</v>
       </c>
       <c r="D103" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E103" t="n" s="2">
-        <v>43832.0</v>
+        <v>43891.0</v>
       </c>
     </row>
     <row r="104">
@@ -2453,16 +2456,16 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C104" t="n" s="2">
-        <v>43890.0</v>
+        <v>43838.0</v>
       </c>
       <c r="D104" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E104" t="n" s="2">
-        <v>43887.0</v>
+        <v>43832.0</v>
       </c>
     </row>
     <row r="105">
@@ -2470,16 +2473,16 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C105" t="n" s="2">
-        <v>43838.0</v>
+        <v>43890.0</v>
       </c>
       <c r="D105" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E105" t="n" s="2">
-        <v>43833.0</v>
+        <v>43887.0</v>
       </c>
     </row>
     <row r="106">
@@ -2490,13 +2493,13 @@
         <v>206</v>
       </c>
       <c r="C106" t="n" s="2">
-        <v>43855.0</v>
+        <v>43838.0</v>
       </c>
       <c r="D106" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E106" t="n" s="2">
-        <v>43852.0</v>
+        <v>43833.0</v>
       </c>
     </row>
     <row r="107">
@@ -2504,16 +2507,16 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C107" t="n" s="2">
-        <v>43904.0</v>
+        <v>43855.0</v>
       </c>
       <c r="D107" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E107" t="n" s="2">
-        <v>43900.0</v>
+        <v>43852.0</v>
       </c>
     </row>
     <row r="108">
@@ -2521,16 +2524,16 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C108" t="n" s="2">
+        <v>43904.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E108" t="n" s="2">
         <v>43900.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E108" t="n" s="2">
-        <v>43895.0</v>
       </c>
     </row>
     <row r="109">
@@ -2538,16 +2541,16 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C109" t="n" s="2">
-        <v>43898.0</v>
+        <v>43900.0</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E109" t="n" s="2">
-        <v>43897.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="110">
@@ -2555,16 +2558,16 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C110" t="n" s="2">
-        <v>43893.0</v>
+        <v>43898.0</v>
       </c>
       <c r="D110" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E110" t="n" s="2">
-        <v>43889.0</v>
+        <v>43897.0</v>
       </c>
     </row>
     <row r="111">
@@ -2572,16 +2575,16 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C111" t="n" s="2">
-        <v>43860.0</v>
+        <v>43893.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E111" t="n" s="2">
-        <v>43858.0</v>
+        <v>43889.0</v>
       </c>
     </row>
     <row r="112">
@@ -2589,16 +2592,16 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C112" t="n" s="2">
-        <v>43900.0</v>
+        <v>43860.0</v>
       </c>
       <c r="D112" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E112" t="n" s="2">
-        <v>43892.0</v>
+        <v>43858.0</v>
       </c>
     </row>
     <row r="113">
@@ -2606,16 +2609,16 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C113" t="n" s="2">
-        <v>43834.0</v>
+        <v>43900.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E113" t="n" s="2">
-        <v>43832.0</v>
+        <v>43892.0</v>
       </c>
     </row>
     <row r="114">
@@ -2623,16 +2626,16 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C114" t="n" s="2">
-        <v>43849.0</v>
+        <v>43834.0</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E114" t="n" s="2">
-        <v>43848.0</v>
+        <v>43832.0</v>
       </c>
     </row>
     <row r="115">
@@ -2640,16 +2643,16 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C115" t="n" s="2">
-        <v>43885.0</v>
+        <v>43849.0</v>
       </c>
       <c r="D115" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E115" t="n" s="2">
-        <v>43879.0</v>
+        <v>43848.0</v>
       </c>
     </row>
     <row r="116">
@@ -2657,16 +2660,16 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C116" t="n" s="2">
-        <v>43865.0</v>
+        <v>43885.0</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E116" t="n" s="2">
-        <v>43864.0</v>
+        <v>43879.0</v>
       </c>
     </row>
     <row r="117">
@@ -2674,16 +2677,16 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C117" t="n" s="2">
-        <v>43831.0</v>
+        <v>43865.0</v>
       </c>
       <c r="D117" t="n">
         <v>1.0</v>
       </c>
       <c r="E117" t="n" s="2">
-        <v>43830.0</v>
+        <v>43864.0</v>
       </c>
     </row>
     <row r="118">
@@ -2691,16 +2694,16 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C118" t="n" s="2">
-        <v>43903.0</v>
+        <v>43831.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E118" t="n" s="2">
-        <v>43901.0</v>
+        <v>43830.0</v>
       </c>
     </row>
     <row r="119">
@@ -2711,13 +2714,13 @@
         <v>198</v>
       </c>
       <c r="C119" t="n" s="2">
-        <v>43859.0</v>
+        <v>43903.0</v>
       </c>
       <c r="D119" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E119" t="n" s="2">
-        <v>43856.0</v>
+        <v>43901.0</v>
       </c>
     </row>
     <row r="120">
@@ -2725,16 +2728,16 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C120" t="n" s="2">
-        <v>43863.0</v>
+        <v>43859.0</v>
       </c>
       <c r="D120" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E120" t="n" s="2">
-        <v>43861.0</v>
+        <v>43856.0</v>
       </c>
     </row>
     <row r="121">
@@ -2742,16 +2745,16 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" t="n" s="2">
-        <v>43835.0</v>
+        <v>43863.0</v>
       </c>
       <c r="D121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E121" t="n" s="2">
-        <v>43834.0</v>
+        <v>43861.0</v>
       </c>
     </row>
     <row r="122">
@@ -2759,16 +2762,16 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C122" t="n" s="2">
-        <v>43881.0</v>
+        <v>43835.0</v>
       </c>
       <c r="D122" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E122" t="n" s="2">
-        <v>43878.0</v>
+        <v>43834.0</v>
       </c>
     </row>
     <row r="123">
@@ -2779,13 +2782,13 @@
         <v>202</v>
       </c>
       <c r="C123" t="n" s="2">
-        <v>43904.0</v>
+        <v>43881.0</v>
       </c>
       <c r="D123" t="n">
         <v>3.0</v>
       </c>
       <c r="E123" t="n" s="2">
-        <v>43901.0</v>
+        <v>43878.0</v>
       </c>
     </row>
     <row r="124">
@@ -2793,16 +2796,16 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C124" t="n" s="2">
-        <v>43903.0</v>
+        <v>43904.0</v>
       </c>
       <c r="D124" t="n">
         <v>3.0</v>
       </c>
       <c r="E124" t="n" s="2">
-        <v>43900.0</v>
+        <v>43901.0</v>
       </c>
     </row>
     <row r="125">
@@ -2810,16 +2813,16 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C125" t="n" s="2">
         <v>43903.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E125" t="n" s="2">
-        <v>43899.0</v>
+        <v>43900.0</v>
       </c>
     </row>
     <row r="126">
@@ -2827,13 +2830,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C126" t="n" s="2">
-        <v>43901.0</v>
+        <v>43903.0</v>
       </c>
       <c r="D126" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E126" t="n" s="2">
         <v>43899.0</v>
@@ -2844,16 +2847,16 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C127" t="n" s="2">
-        <v>43896.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E127" t="n" s="2">
-        <v>43892.0</v>
+        <v>43899.0</v>
       </c>
     </row>
     <row r="128">
@@ -2861,7 +2864,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C128" t="n" s="2">
         <v>43896.0</v>
@@ -2878,16 +2881,16 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C129" t="n" s="2">
-        <v>43895.0</v>
+        <v>43896.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E129" t="n" s="2">
-        <v>43890.0</v>
+        <v>43892.0</v>
       </c>
     </row>
     <row r="130">
@@ -2895,16 +2898,16 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C130" t="n" s="2">
-        <v>43902.0</v>
+        <v>43895.0</v>
       </c>
       <c r="D130" t="n">
         <v>5.0</v>
       </c>
       <c r="E130" t="n" s="2">
-        <v>43897.0</v>
+        <v>43890.0</v>
       </c>
     </row>
     <row r="131">
@@ -2912,16 +2915,16 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C131" t="n" s="2">
-        <v>43834.0</v>
+        <v>43902.0</v>
       </c>
       <c r="D131" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E131" t="n" s="2">
-        <v>43831.0</v>
+        <v>43897.0</v>
       </c>
     </row>
     <row r="132">
@@ -2929,16 +2932,16 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C132" t="n" s="2">
-        <v>43873.0</v>
+        <v>43834.0</v>
       </c>
       <c r="D132" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E132" t="n" s="2">
-        <v>43872.0</v>
+        <v>43831.0</v>
       </c>
     </row>
     <row r="133">
@@ -2946,16 +2949,16 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C133" t="n" s="2">
-        <v>43834.0</v>
+        <v>43873.0</v>
       </c>
       <c r="D133" t="n">
         <v>1.0</v>
       </c>
       <c r="E133" t="n" s="2">
-        <v>43833.0</v>
+        <v>43872.0</v>
       </c>
     </row>
     <row r="134">
@@ -2963,16 +2966,16 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C134" t="n" s="2">
-        <v>43901.0</v>
+        <v>43834.0</v>
       </c>
       <c r="D134" t="n">
         <v>1.0</v>
       </c>
       <c r="E134" t="n" s="2">
-        <v>43900.0</v>
+        <v>43833.0</v>
       </c>
     </row>
     <row r="135">
@@ -2980,16 +2983,16 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C135" t="n" s="2">
-        <v>43849.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D135" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E135" t="n" s="2">
-        <v>43847.0</v>
+        <v>43900.0</v>
       </c>
     </row>
     <row r="136">
@@ -2997,16 +3000,16 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C136" t="n" s="2">
-        <v>43870.0</v>
+        <v>43849.0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E136" t="n" s="2">
-        <v>43869.0</v>
+        <v>43847.0</v>
       </c>
     </row>
     <row r="137">
@@ -3014,16 +3017,16 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C137" t="n" s="2">
-        <v>43861.0</v>
+        <v>43870.0</v>
       </c>
       <c r="D137" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E137" t="n" s="2">
-        <v>43859.0</v>
+        <v>43869.0</v>
       </c>
     </row>
     <row r="138">
@@ -3031,16 +3034,16 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C138" t="n" s="2">
-        <v>43900.0</v>
+        <v>43861.0</v>
       </c>
       <c r="D138" t="n">
         <v>2.0</v>
       </c>
       <c r="E138" t="n" s="2">
-        <v>43898.0</v>
+        <v>43859.0</v>
       </c>
     </row>
     <row r="139">
@@ -3051,13 +3054,13 @@
         <v>192</v>
       </c>
       <c r="C139" t="n" s="2">
-        <v>43868.0</v>
+        <v>43900.0</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E139" t="n" s="2">
-        <v>43867.0</v>
+        <v>43898.0</v>
       </c>
     </row>
     <row r="140">
@@ -3068,13 +3071,13 @@
         <v>193</v>
       </c>
       <c r="C140" t="n" s="2">
-        <v>43864.0</v>
+        <v>43868.0</v>
       </c>
       <c r="D140" t="n">
         <v>1.0</v>
       </c>
       <c r="E140" t="n" s="2">
-        <v>43863.0</v>
+        <v>43867.0</v>
       </c>
     </row>
     <row r="141">
@@ -3082,16 +3085,16 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C141" t="n" s="2">
-        <v>43896.0</v>
+        <v>43864.0</v>
       </c>
       <c r="D141" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E141" t="n" s="2">
-        <v>43894.0</v>
+        <v>43863.0</v>
       </c>
     </row>
     <row r="142">
@@ -3099,16 +3102,16 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C142" t="n" s="2">
-        <v>43899.0</v>
+        <v>43896.0</v>
       </c>
       <c r="D142" t="n">
         <v>2.0</v>
       </c>
       <c r="E142" t="n" s="2">
-        <v>43897.0</v>
+        <v>43894.0</v>
       </c>
     </row>
     <row r="143">
@@ -3116,16 +3119,16 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C143" t="n" s="2">
-        <v>43831.0</v>
+        <v>43899.0</v>
       </c>
       <c r="D143" t="n">
         <v>2.0</v>
       </c>
       <c r="E143" t="n" s="2">
-        <v>43829.0</v>
+        <v>43897.0</v>
       </c>
     </row>
     <row r="144">
@@ -3133,16 +3136,16 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C144" t="n" s="2">
-        <v>43888.0</v>
+        <v>43831.0</v>
       </c>
       <c r="D144" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E144" t="n" s="2">
-        <v>43885.0</v>
+        <v>43829.0</v>
       </c>
     </row>
     <row r="145">
@@ -3150,16 +3153,16 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C145" t="n" s="2">
         <v>43888.0</v>
       </c>
       <c r="D145" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E145" t="n" s="2">
-        <v>43882.0</v>
+        <v>43885.0</v>
       </c>
     </row>
     <row r="146">
@@ -3167,16 +3170,16 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C146" t="n" s="2">
-        <v>43850.0</v>
+        <v>43888.0</v>
       </c>
       <c r="D146" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E146" t="n" s="2">
-        <v>43848.0</v>
+        <v>43882.0</v>
       </c>
     </row>
     <row r="147">
@@ -3184,16 +3187,16 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C147" t="n" s="2">
-        <v>43904.0</v>
+        <v>43850.0</v>
       </c>
       <c r="D147" t="n">
         <v>2.0</v>
       </c>
       <c r="E147" t="n" s="2">
-        <v>43902.0</v>
+        <v>43848.0</v>
       </c>
     </row>
     <row r="148">
@@ -3201,16 +3204,16 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C148" t="n" s="2">
-        <v>43832.0</v>
+        <v>43904.0</v>
       </c>
       <c r="D148" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E148" t="n" s="2">
-        <v>43829.0</v>
+        <v>43902.0</v>
       </c>
     </row>
     <row r="149">
@@ -3218,16 +3221,16 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C149" t="n" s="2">
-        <v>43892.0</v>
+        <v>43832.0</v>
       </c>
       <c r="D149" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E149" t="n" s="2">
-        <v>43891.0</v>
+        <v>43829.0</v>
       </c>
     </row>
     <row r="150">
@@ -3235,16 +3238,16 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C150" t="n" s="2">
-        <v>43880.0</v>
+        <v>43892.0</v>
       </c>
       <c r="D150" t="n">
         <v>1.0</v>
       </c>
       <c r="E150" t="n" s="2">
-        <v>43879.0</v>
+        <v>43891.0</v>
       </c>
     </row>
     <row r="151">
@@ -3252,16 +3255,16 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C151" t="n" s="2">
-        <v>43901.0</v>
+        <v>43880.0</v>
       </c>
       <c r="D151" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E151" t="n" s="2">
-        <v>43895.0</v>
+        <v>43879.0</v>
       </c>
     </row>
     <row r="152">
@@ -3269,16 +3272,16 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C152" t="n" s="2">
-        <v>43898.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D152" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E152" t="n" s="2">
-        <v>43896.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="153">
@@ -3286,16 +3289,16 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C153" t="n" s="2">
-        <v>43902.0</v>
+        <v>43898.0</v>
       </c>
       <c r="D153" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E153" t="n" s="2">
-        <v>43898.0</v>
+        <v>43896.0</v>
       </c>
     </row>
     <row r="154">
@@ -3303,16 +3306,16 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C154" t="n" s="2">
-        <v>43887.0</v>
+        <v>43902.0</v>
       </c>
       <c r="D154" t="n">
         <v>4.0</v>
       </c>
       <c r="E154" t="n" s="2">
-        <v>43883.0</v>
+        <v>43898.0</v>
       </c>
     </row>
     <row r="155">
@@ -3320,16 +3323,16 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C155" t="n" s="2">
-        <v>43881.0</v>
+        <v>43887.0</v>
       </c>
       <c r="D155" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E155" t="n" s="2">
-        <v>43880.0</v>
+        <v>43883.0</v>
       </c>
     </row>
     <row r="156">
@@ -3337,16 +3340,16 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C156" t="n" s="2">
-        <v>43901.0</v>
+        <v>43881.0</v>
       </c>
       <c r="D156" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E156" t="n" s="2">
-        <v>43894.0</v>
+        <v>43880.0</v>
       </c>
     </row>
     <row r="157">
@@ -3354,16 +3357,16 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C157" t="n" s="2">
-        <v>43867.0</v>
+        <v>43901.0</v>
       </c>
       <c r="D157" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E157" t="n" s="2">
-        <v>43866.0</v>
+        <v>43894.0</v>
       </c>
     </row>
     <row r="158">
@@ -3371,16 +3374,16 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C158" t="n" s="2">
-        <v>43900.0</v>
+        <v>43867.0</v>
       </c>
       <c r="D158" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E158" t="n" s="2">
-        <v>43891.0</v>
+        <v>43866.0</v>
       </c>
     </row>
     <row r="159">
@@ -3388,16 +3391,16 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C159" t="n" s="2">
-        <v>43888.0</v>
+        <v>43900.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E159" t="n" s="2">
-        <v>43883.0</v>
+        <v>43891.0</v>
       </c>
     </row>
     <row r="160">
@@ -3405,16 +3408,16 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C160" t="n" s="2">
-        <v>43862.0</v>
+        <v>43888.0</v>
       </c>
       <c r="D160" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E160" t="n" s="2">
-        <v>43859.0</v>
+        <v>43883.0</v>
       </c>
     </row>
     <row r="161">
@@ -3422,16 +3425,16 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C161" t="n" s="2">
-        <v>43886.0</v>
+        <v>43862.0</v>
       </c>
       <c r="D161" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E161" t="n" s="2">
-        <v>43884.0</v>
+        <v>43859.0</v>
       </c>
     </row>
     <row r="162">
@@ -3439,16 +3442,16 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C162" t="n" s="2">
-        <v>43859.0</v>
+        <v>43886.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E162" t="n" s="2">
-        <v>43855.0</v>
+        <v>43884.0</v>
       </c>
     </row>
     <row r="163">
@@ -3456,16 +3459,16 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C163" t="n" s="2">
-        <v>43903.0</v>
+        <v>43859.0</v>
       </c>
       <c r="D163" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E163" t="n" s="2">
-        <v>43897.0</v>
+        <v>43855.0</v>
       </c>
     </row>
     <row r="164">
@@ -3473,16 +3476,16 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C164" t="n" s="2">
-        <v>43838.0</v>
+        <v>43903.0</v>
       </c>
       <c r="D164" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E164" t="n" s="2">
-        <v>43835.0</v>
+        <v>43897.0</v>
       </c>
     </row>
     <row r="165">
@@ -3490,16 +3493,16 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C165" t="n" s="2">
-        <v>43906.0</v>
+        <v>43838.0</v>
       </c>
       <c r="D165" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E165" t="n" s="2">
-        <v>43905.0</v>
+        <v>43835.0</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3510,16 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C166" t="n" s="2">
-        <v>43833.0</v>
+        <v>43906.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E166" t="n" s="2">
-        <v>43831.0</v>
+        <v>43905.0</v>
       </c>
     </row>
     <row r="167">
@@ -3524,16 +3527,16 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C167" t="n" s="2">
-        <v>43853.0</v>
+        <v>43833.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E167" t="n" s="2">
-        <v>43849.0</v>
+        <v>43831.0</v>
       </c>
     </row>
     <row r="168">
@@ -3541,16 +3544,16 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C168" t="n" s="2">
-        <v>43852.0</v>
+        <v>43853.0</v>
       </c>
       <c r="D168" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E168" t="n" s="2">
-        <v>43845.0</v>
+        <v>43849.0</v>
       </c>
     </row>
     <row r="169">
@@ -3558,16 +3561,16 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C169" t="n" s="2">
-        <v>43860.0</v>
+        <v>43852.0</v>
       </c>
       <c r="D169" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E169" t="n" s="2">
-        <v>43857.0</v>
+        <v>43845.0</v>
       </c>
     </row>
     <row r="170">
@@ -3575,16 +3578,16 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C170" t="n" s="2">
-        <v>43855.0</v>
+        <v>43860.0</v>
       </c>
       <c r="D170" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E170" t="n" s="2">
-        <v>43853.0</v>
+        <v>43857.0</v>
       </c>
     </row>
     <row r="171">
@@ -3592,13 +3595,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C171" t="n" s="2">
-        <v>43854.0</v>
+        <v>43855.0</v>
       </c>
       <c r="D171" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E171" t="n" s="2">
         <v>43853.0</v>
@@ -3609,16 +3612,16 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C172" t="n" s="2">
-        <v>43886.0</v>
+        <v>43854.0</v>
       </c>
       <c r="D172" t="n">
         <v>1.0</v>
       </c>
       <c r="E172" t="n" s="2">
-        <v>43885.0</v>
+        <v>43853.0</v>
       </c>
     </row>
     <row r="173">
@@ -3626,16 +3629,16 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C173" t="n" s="2">
-        <v>43897.0</v>
+        <v>43886.0</v>
       </c>
       <c r="D173" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E173" t="n" s="2">
-        <v>43892.0</v>
+        <v>43885.0</v>
       </c>
     </row>
     <row r="174">
@@ -3643,16 +3646,16 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C174" t="n" s="2">
-        <v>43880.0</v>
+        <v>43897.0</v>
       </c>
       <c r="D174" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E174" t="n" s="2">
-        <v>43878.0</v>
+        <v>43892.0</v>
       </c>
     </row>
     <row r="175">
@@ -3660,16 +3663,16 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C175" t="n" s="2">
-        <v>43903.0</v>
+        <v>43880.0</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E175" t="n" s="2">
-        <v>43902.0</v>
+        <v>43878.0</v>
       </c>
     </row>
     <row r="176">
@@ -3677,16 +3680,16 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C176" t="n" s="2">
-        <v>43837.0</v>
+        <v>43903.0</v>
       </c>
       <c r="D176" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E176" t="n" s="2">
-        <v>43835.0</v>
+        <v>43902.0</v>
       </c>
     </row>
     <row r="177">
@@ -3694,16 +3697,16 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C177" t="n" s="2">
-        <v>43892.0</v>
+        <v>43837.0</v>
       </c>
       <c r="D177" t="n">
         <v>2.0</v>
       </c>
       <c r="E177" t="n" s="2">
-        <v>43890.0</v>
+        <v>43835.0</v>
       </c>
     </row>
     <row r="178">
@@ -3711,16 +3714,16 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C178" t="n" s="2">
-        <v>43882.0</v>
+        <v>43892.0</v>
       </c>
       <c r="D178" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E178" t="n" s="2">
-        <v>43881.0</v>
+        <v>43890.0</v>
       </c>
     </row>
     <row r="179">
@@ -3728,16 +3731,16 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C179" t="n" s="2">
-        <v>43905.0</v>
+        <v>43882.0</v>
       </c>
       <c r="D179" t="n">
         <v>1.0</v>
       </c>
       <c r="E179" t="n" s="2">
-        <v>43904.0</v>
+        <v>43881.0</v>
       </c>
     </row>
     <row r="180">
@@ -3745,16 +3748,16 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C180" t="n" s="2">
-        <v>43853.0</v>
+        <v>43905.0</v>
       </c>
       <c r="D180" t="n">
         <v>1.0</v>
       </c>
       <c r="E180" t="n" s="2">
-        <v>43852.0</v>
+        <v>43904.0</v>
       </c>
     </row>
     <row r="181">
@@ -3762,16 +3765,16 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C181" t="n" s="2">
-        <v>43872.0</v>
+        <v>43853.0</v>
       </c>
       <c r="D181" t="n">
         <v>1.0</v>
       </c>
       <c r="E181" t="n" s="2">
-        <v>43871.0</v>
+        <v>43852.0</v>
       </c>
     </row>
     <row r="182">
@@ -3779,16 +3782,16 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C182" t="n" s="2">
-        <v>43896.0</v>
+        <v>43872.0</v>
       </c>
       <c r="D182" t="n">
         <v>1.0</v>
       </c>
       <c r="E182" t="n" s="2">
-        <v>43895.0</v>
+        <v>43871.0</v>
       </c>
     </row>
     <row r="183">
@@ -3796,16 +3799,16 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C183" t="n" s="2">
-        <v>43904.0</v>
+        <v>43896.0</v>
       </c>
       <c r="D183" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E183" t="n" s="2">
-        <v>43896.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="184">
@@ -3813,16 +3816,16 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C184" t="n" s="2">
-        <v>43900.0</v>
+        <v>43904.0</v>
       </c>
       <c r="D184" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E184" t="n" s="2">
-        <v>43893.0</v>
+        <v>43896.0</v>
       </c>
     </row>
     <row r="185">
@@ -3830,16 +3833,16 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C185" t="n" s="2">
-        <v>43885.0</v>
+        <v>43900.0</v>
       </c>
       <c r="D185" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E185" t="n" s="2">
-        <v>43884.0</v>
+        <v>43893.0</v>
       </c>
     </row>
     <row r="186">
@@ -3847,15 +3850,32 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C186" t="n" s="2">
+        <v>43885.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E186" t="n" s="2">
+        <v>43884.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>198</v>
+      </c>
+      <c r="C187" t="n" s="2">
         <v>43902.0</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D187" t="n">
         <v>3.0</v>
       </c>
-      <c r="E186" t="n" s="2">
+      <c r="E187" t="n" s="2">
         <v>43899.0</v>
       </c>
     </row>
